--- a/src/lib/server/reports/templates/TEMPLATE_C2-SocInfo.xlsx
+++ b/src/lib/server/reports/templates/TEMPLATE_C2-SocInfo.xlsx
@@ -653,7 +653,7 @@
   <dimension ref="B1:N22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="R36" activeCellId="0" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
